--- a/Enid Purdy pipeline.xlsx
+++ b/Enid Purdy pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E90D06-6D43-4F8E-849D-64FC5A8DEA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B19959-6649-4868-81C1-DB64FBFD697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{7D3FBEBC-D24A-4E25-953F-F9EA23A735D7}"/>
   </bookViews>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Enid Purdy pipeline.xlsx
+++ b/Enid Purdy pipeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B19959-6649-4868-81C1-DB64FBFD697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8119C16-3EC5-456E-A319-A6C132BB1800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{7D3FBEBC-D24A-4E25-953F-F9EA23A735D7}"/>
+    <workbookView minimized="1" xWindow="-36" yWindow="438" windowWidth="17352" windowHeight="8946" xr2:uid="{7D3FBEBC-D24A-4E25-953F-F9EA23A735D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,11 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E015116-1662-4078-8CF1-D8A29C51B2BE}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -562,10 +583,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>36.310492000000004</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>-97.782797000000002</v>
       </c>
     </row>
@@ -610,10 +631,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>35.950473000000002</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>-97.791827999999995</v>
       </c>
     </row>
@@ -674,10 +695,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>35.674284</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>-97.789061000000004</v>
       </c>
     </row>
@@ -882,10 +903,10 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>35.011676999999999</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>-97.781261999999998</v>
       </c>
     </row>
@@ -994,10 +1015,10 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
+      <c r="A70" s="3">
         <v>34.657589000000002</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>-97.620430999999996</v>
       </c>
     </row>
